--- a/biology/Botanique/Mimusops_balata/Mimusops_balata.xlsx
+++ b/biology/Botanique/Mimusops_balata/Mimusops_balata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mimusops balata est une espèce de plantes à fleurs de la famille des Sapotaceae. C'est un arbre endémique de La Réunion et de l'île Maurice.
-Il est  appelé grand natte ou natte à grandes feuilles à La Réunion[2]. À l'île Maurice, on le nomme macaque ou makak[3],  de manière indifférenciée avec Mimusops petiolaris.
+Il est  appelé grand natte ou natte à grandes feuilles à La Réunion. À l'île Maurice, on le nomme macaque ou makak,  de manière indifférenciée avec Mimusops petiolaris.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Risque de confusion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le nom binomial Mimusops balata (Aubl.) C.F.Gaertn., l'épithète spécifique balata a pu induire en erreur les botanistes et le faire confondre avec Manilkara bidentata (A.DC.) A.Cheval, le balata franc de Guyane[4]. Le nom fautif Mimusops balata Pierre ex Dubard, 1915[5] a été invalidé[6].
-Il ne faut pas non plus le confondre avec l'homonyme Mimusops balata Crueg. ex Griseb., 1864, qui est en fait un synonyme de Mimusops globosa C.F. Gaertn.[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le nom binomial Mimusops balata (Aubl.) C.F.Gaertn., l'épithète spécifique balata a pu induire en erreur les botanistes et le faire confondre avec Manilkara bidentata (A.DC.) A.Cheval, le balata franc de Guyane. Le nom fautif Mimusops balata Pierre ex Dubard, 1915 a été invalidé.
+Il ne faut pas non plus le confondre avec l'homonyme Mimusops balata Crueg. ex Griseb., 1864, qui est en fait un synonyme de Mimusops globosa C.F. Gaertn..
 </t>
         </is>
       </c>
@@ -546,11 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bois
-Le bois de grand natte fut beaucoup exploité et utilisé en construction. Il servit également à confectionner des parquets. Le bois de cœur, bien distinct d'un aubier gris clair, est brun-rouge à brun-orangé avec des veinures légèrement plus sombres, à maillure fine à peine visible, parfois ondé. Le grain est fin. La densité peut varier de 0,7 à 0,9 [8].
-La disparition quasi complète des forêts mégathermes a fait s'éteindre cette ressource en bois. Dès la fin du XIXe, Cordemoy s'inquiétait de sa raréfaction[9]. Quelques plantations artificielles à Saint-Philippe, au sud-est de La Réunion, en association avec le petit natte, seront susceptibles dans quelques décennies de ne fournir que des volumes très minimes.
-Colle
-Le latex, récupéré principalement à partir des fruits verts, servait à confectionner la « colle natte », une glu destinée à piéger les oiseaux[10].
+          <t>Bois</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de grand natte fut beaucoup exploité et utilisé en construction. Il servit également à confectionner des parquets. Le bois de cœur, bien distinct d'un aubier gris clair, est brun-rouge à brun-orangé avec des veinures légèrement plus sombres, à maillure fine à peine visible, parfois ondé. Le grain est fin. La densité peut varier de 0,7 à 0,9 .
+La disparition quasi complète des forêts mégathermes a fait s'éteindre cette ressource en bois. Dès la fin du XIXe, Cordemoy s'inquiétait de sa raréfaction. Quelques plantations artificielles à Saint-Philippe, au sud-est de La Réunion, en association avec le petit natte, seront susceptibles dans quelques décennies de ne fournir que des volumes très minimes.
 </t>
         </is>
       </c>
@@ -576,12 +593,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Colle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le latex, récupéré principalement à partir des fruits verts, servait à confectionner la « colle natte », une glu destinée à piéger les oiseaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mimusops_balata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mimusops_balata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[11] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « ACHRAS (Balata) foliis ovato-oblongis, ſubtùs cinereis ; fructu viridi, olivæformi.
 MANIL-KARA. RHEED. H.mal. tom.4.tab.25.p.53.
 BOIS DE NATE à feuille de poirier, ou à petite feuille, de l'iſle de France ; il eſt commun dans le quartier du port du Sud-eſt, &amp; dans la ravine de la rivière au ris. »
